--- a/frecuencias_por_categorias_Casen_2020.xlsx
+++ b/frecuencias_por_categorias_Casen_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>178230</v>
+        <v>134386</v>
       </c>
       <c r="C2">
         <v>2015</v>
@@ -394,7 +394,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>114820</v>
+        <v>73101</v>
       </c>
       <c r="C3">
         <v>2015</v>
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>14671</v>
+        <v>9625</v>
       </c>
       <c r="C4">
         <v>2015</v>
@@ -416,11 +416,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antofagasta</t>
+          <t>Camiña</t>
         </is>
       </c>
       <c r="B5">
-        <v>376378</v>
+        <v>722</v>
       </c>
       <c r="C5">
         <v>2015</v>
@@ -429,11 +429,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Calama</t>
+          <t>Huara</t>
         </is>
       </c>
       <c r="B6">
-        <v>145303</v>
+        <v>2287</v>
       </c>
       <c r="C6">
         <v>2015</v>
@@ -442,11 +442,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tocopilla</t>
+          <t>Pica</t>
         </is>
       </c>
       <c r="B7">
-        <v>18940</v>
+        <v>8238</v>
       </c>
       <c r="C7">
         <v>2015</v>
@@ -455,11 +455,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Copiapó</t>
+          <t>Antofagasta</t>
         </is>
       </c>
       <c r="B8">
-        <v>171609</v>
+        <v>270325</v>
       </c>
       <c r="C8">
         <v>2015</v>
@@ -468,11 +468,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Chañaral</t>
+          <t>Mejillones</t>
         </is>
       </c>
       <c r="B9">
-        <v>11680</v>
+        <v>8431</v>
       </c>
       <c r="C9">
         <v>2015</v>
@@ -481,11 +481,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vallenar</t>
+          <t>Sierra Gorda</t>
         </is>
       </c>
       <c r="B10">
-        <v>43898</v>
+        <v>1171</v>
       </c>
       <c r="C10">
         <v>2015</v>
@@ -494,11 +494,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>La Serena</t>
+          <t>Taltal</t>
         </is>
       </c>
       <c r="B11">
-        <v>231113</v>
+        <v>6672</v>
       </c>
       <c r="C11">
         <v>2015</v>
@@ -507,11 +507,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Coquimbo</t>
+          <t>Calama</t>
         </is>
       </c>
       <c r="B12">
-        <v>233052</v>
+        <v>104804</v>
       </c>
       <c r="C12">
         <v>2015</v>
@@ -520,11 +520,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Vicuña</t>
+          <t>San Pedro de Atacama</t>
         </is>
       </c>
       <c r="B13">
-        <v>26313</v>
+        <v>5730</v>
       </c>
       <c r="C13">
         <v>2015</v>
@@ -533,11 +533,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Illapel</t>
+          <t>Tocopilla</t>
         </is>
       </c>
       <c r="B14">
-        <v>30326</v>
+        <v>14879</v>
       </c>
       <c r="C14">
         <v>2015</v>
@@ -546,11 +546,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ovalle</t>
+          <t>María Elena</t>
         </is>
       </c>
       <c r="B15">
-        <v>113422</v>
+        <v>2159</v>
       </c>
       <c r="C15">
         <v>2015</v>
@@ -559,11 +559,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Valparaíso</t>
+          <t>Copiapó</t>
         </is>
       </c>
       <c r="B16">
-        <v>254975</v>
+        <v>124639</v>
       </c>
       <c r="C16">
         <v>2015</v>
@@ -572,11 +572,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Concón</t>
+          <t>Caldera</t>
         </is>
       </c>
       <c r="B17">
-        <v>73690</v>
+        <v>10806</v>
       </c>
       <c r="C17">
         <v>2015</v>
@@ -585,11 +585,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Viña del Mar</t>
+          <t>Tierra Amarilla</t>
         </is>
       </c>
       <c r="B18">
-        <v>281443</v>
+        <v>8907</v>
       </c>
       <c r="C18">
         <v>2015</v>
@@ -598,11 +598,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Los Andes</t>
+          <t>Chañaral</t>
         </is>
       </c>
       <c r="B19">
-        <v>76093</v>
+        <v>8636</v>
       </c>
       <c r="C19">
         <v>2015</v>
@@ -611,11 +611,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>La Ligua</t>
+          <t>Diego de Almagro</t>
         </is>
       </c>
       <c r="B20">
-        <v>39418</v>
+        <v>6885</v>
       </c>
       <c r="C20">
         <v>2015</v>
@@ -624,11 +624,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Quillota</t>
+          <t>Vallenar</t>
         </is>
       </c>
       <c r="B21">
-        <v>89423</v>
+        <v>33489</v>
       </c>
       <c r="C21">
         <v>2015</v>
@@ -637,11 +637,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Calera</t>
+          <t>Alto del Carmen</t>
         </is>
       </c>
       <c r="B22">
-        <v>55934</v>
+        <v>3344</v>
       </c>
       <c r="C22">
         <v>2015</v>
@@ -650,11 +650,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Freirina</t>
         </is>
       </c>
       <c r="B23">
-        <v>100827</v>
+        <v>4191</v>
       </c>
       <c r="C23">
         <v>2015</v>
@@ -663,11 +663,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>El Quisco</t>
+          <t>Huasco</t>
         </is>
       </c>
       <c r="B24">
-        <v>17640</v>
+        <v>5481</v>
       </c>
       <c r="C24">
         <v>2015</v>
@@ -676,11 +676,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>San Felipe</t>
+          <t>La Serena</t>
         </is>
       </c>
       <c r="B25">
-        <v>80798</v>
+        <v>171341</v>
       </c>
       <c r="C25">
         <v>2015</v>
@@ -689,11 +689,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Quilpué</t>
+          <t>Coquimbo</t>
         </is>
       </c>
       <c r="B26">
-        <v>171846</v>
+        <v>169885</v>
       </c>
       <c r="C26">
         <v>2015</v>
@@ -702,11 +702,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Limache</t>
+          <t>Andacollo</t>
         </is>
       </c>
       <c r="B27">
-        <v>46485</v>
+        <v>5642</v>
       </c>
       <c r="C27">
         <v>2015</v>
@@ -715,11 +715,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Villa Alemana</t>
+          <t>La Higuera</t>
         </is>
       </c>
       <c r="B28">
-        <v>146214</v>
+        <v>3148</v>
       </c>
       <c r="C28">
         <v>2015</v>
@@ -728,11 +728,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rancagua</t>
+          <t>Paiguano</t>
         </is>
       </c>
       <c r="B29">
-        <v>254689</v>
+        <v>3417</v>
       </c>
       <c r="C29">
         <v>2015</v>
@@ -741,11 +741,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Codegua</t>
+          <t>Vicuña</t>
         </is>
       </c>
       <c r="B30">
-        <v>13023</v>
+        <v>19197</v>
       </c>
       <c r="C30">
         <v>2015</v>
@@ -754,11 +754,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Coltauco</t>
+          <t>Illapel</t>
         </is>
       </c>
       <c r="B31">
-        <v>17606</v>
+        <v>23357</v>
       </c>
       <c r="C31">
         <v>2015</v>
@@ -767,11 +767,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Graneros</t>
+          <t>Canela</t>
         </is>
       </c>
       <c r="B32">
-        <v>32028</v>
+        <v>6347</v>
       </c>
       <c r="C32">
         <v>2015</v>
@@ -780,11 +780,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Machalí</t>
+          <t>Los Vilos</t>
         </is>
       </c>
       <c r="B33">
-        <v>37710</v>
+        <v>14602</v>
       </c>
       <c r="C33">
         <v>2015</v>
@@ -793,11 +793,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Olivar</t>
+          <t>Salamanca</t>
         </is>
       </c>
       <c r="B34">
-        <v>14260</v>
+        <v>17682</v>
       </c>
       <c r="C34">
         <v>2015</v>
@@ -806,11 +806,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Peumo</t>
+          <t>Ovalle</t>
         </is>
       </c>
       <c r="B35">
-        <v>15445</v>
+        <v>85123</v>
       </c>
       <c r="C35">
         <v>2015</v>
@@ -819,11 +819,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pichidegua</t>
+          <t>Combarbalá</t>
         </is>
       </c>
       <c r="B36">
-        <v>19538</v>
+        <v>9446</v>
       </c>
       <c r="C36">
         <v>2015</v>
@@ -832,11 +832,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Rengo</t>
+          <t>Monte Patria</t>
         </is>
       </c>
       <c r="B37">
-        <v>63715</v>
+        <v>25018</v>
       </c>
       <c r="C37">
         <v>2015</v>
@@ -845,11 +845,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Requínoa</t>
+          <t>Punitaqui</t>
         </is>
       </c>
       <c r="B38">
-        <v>26862</v>
+        <v>7973</v>
       </c>
       <c r="C38">
         <v>2015</v>
@@ -858,11 +858,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>San Vicente</t>
+          <t>Río Hurtado</t>
         </is>
       </c>
       <c r="B39">
-        <v>48856</v>
+        <v>3486</v>
       </c>
       <c r="C39">
         <v>2015</v>
@@ -871,11 +871,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pichilemu</t>
+          <t>Valparaíso</t>
         </is>
       </c>
       <c r="B40">
-        <v>15078</v>
+        <v>207213</v>
       </c>
       <c r="C40">
         <v>2015</v>
@@ -884,11 +884,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>San Fernando</t>
+          <t>Casablanca</t>
         </is>
       </c>
       <c r="B41">
-        <v>74933</v>
+        <v>22317</v>
       </c>
       <c r="C41">
         <v>2015</v>
@@ -897,11 +897,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chimbarongo</t>
+          <t>Concón</t>
         </is>
       </c>
       <c r="B42">
-        <v>34926</v>
+        <v>48253</v>
       </c>
       <c r="C42">
         <v>2015</v>
@@ -910,11 +910,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Santa Cruz</t>
+          <t>Puchuncaví</t>
         </is>
       </c>
       <c r="B43">
-        <v>37208</v>
+        <v>13721</v>
       </c>
       <c r="C43">
         <v>2015</v>
@@ -923,11 +923,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Talca</t>
+          <t>Quintero</t>
         </is>
       </c>
       <c r="B44">
-        <v>257496</v>
+        <v>18535</v>
       </c>
       <c r="C44">
         <v>2015</v>
@@ -936,11 +936,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Constitución</t>
+          <t>Viña del Mar</t>
         </is>
       </c>
       <c r="B45">
-        <v>56145</v>
+        <v>220374</v>
       </c>
       <c r="C45">
         <v>2015</v>
@@ -949,11 +949,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>San Clemente</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="B46">
-        <v>39196</v>
+        <v>58696</v>
       </c>
       <c r="C46">
         <v>2015</v>
@@ -962,11 +962,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cauquenes</t>
+          <t>Calle Larga</t>
         </is>
       </c>
       <c r="B47">
-        <v>41950</v>
+        <v>8231</v>
       </c>
       <c r="C47">
         <v>2015</v>
@@ -975,11 +975,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Curicó</t>
+          <t>Rinconada</t>
         </is>
       </c>
       <c r="B48">
-        <v>146571</v>
+        <v>6605</v>
       </c>
       <c r="C48">
         <v>2015</v>
@@ -988,11 +988,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Teno</t>
+          <t>San Esteban</t>
         </is>
       </c>
       <c r="B49">
-        <v>27950</v>
+        <v>14825</v>
       </c>
       <c r="C49">
         <v>2015</v>
@@ -1001,11 +1001,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Linares</t>
+          <t>La Ligua</t>
         </is>
       </c>
       <c r="B50">
-        <v>91338</v>
+        <v>30529</v>
       </c>
       <c r="C50">
         <v>2015</v>
@@ -1014,11 +1014,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Colbún</t>
+          <t>Cabildo</t>
         </is>
       </c>
       <c r="B51">
-        <v>18569</v>
+        <v>17070</v>
       </c>
       <c r="C51">
         <v>2015</v>
@@ -1027,11 +1027,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Parral</t>
+          <t>Papudo</t>
         </is>
       </c>
       <c r="B52">
-        <v>36937</v>
+        <v>4469</v>
       </c>
       <c r="C52">
         <v>2015</v>
@@ -1040,11 +1040,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>San Javier</t>
+          <t>Petorca</t>
         </is>
       </c>
       <c r="B53">
-        <v>41089</v>
+        <v>7620</v>
       </c>
       <c r="C53">
         <v>2015</v>
@@ -1053,11 +1053,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Villa Alegre</t>
+          <t>Zapallar</t>
         </is>
       </c>
       <c r="B54">
-        <v>14303</v>
+        <v>5445</v>
       </c>
       <c r="C54">
         <v>2015</v>
@@ -1066,11 +1066,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Yerbas Buenas</t>
+          <t>Quillota</t>
         </is>
       </c>
       <c r="B55">
-        <v>17123</v>
+        <v>70690</v>
       </c>
       <c r="C55">
         <v>2015</v>
@@ -1079,11 +1079,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Concepción</t>
+          <t>Calera</t>
         </is>
       </c>
       <c r="B56">
-        <v>222382</v>
+        <v>41941</v>
       </c>
       <c r="C56">
         <v>2015</v>
@@ -1092,11 +1092,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Coronel</t>
+          <t>Hijuelas</t>
         </is>
       </c>
       <c r="B57">
-        <v>112885</v>
+        <v>16071</v>
       </c>
       <c r="C57">
         <v>2015</v>
@@ -1105,11 +1105,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Chiguayante</t>
+          <t>La Cruz</t>
         </is>
       </c>
       <c r="B58">
-        <v>142925</v>
+        <v>12085</v>
       </c>
       <c r="C58">
         <v>2015</v>
@@ -1118,11 +1118,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lota</t>
+          <t>Nogales</t>
         </is>
       </c>
       <c r="B59">
-        <v>46144</v>
+        <v>19319</v>
       </c>
       <c r="C59">
         <v>2015</v>
@@ -1131,11 +1131,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Penco</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="B60">
-        <v>55330</v>
+        <v>80148</v>
       </c>
       <c r="C60">
         <v>2015</v>
@@ -1144,11 +1144,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>San Pedro de la Paz</t>
+          <t>Algarrobo</t>
         </is>
       </c>
       <c r="B61">
-        <v>103237</v>
+        <v>11374</v>
       </c>
       <c r="C61">
         <v>2015</v>
@@ -1157,11 +1157,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Talcahuano</t>
+          <t>Cartagena</t>
         </is>
       </c>
       <c r="B62">
-        <v>167923</v>
+        <v>20864</v>
       </c>
       <c r="C62">
         <v>2015</v>
@@ -1170,11 +1170,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tomé</t>
+          <t>El Quisco</t>
         </is>
       </c>
       <c r="B63">
-        <v>56663</v>
+        <v>11910</v>
       </c>
       <c r="C63">
         <v>2015</v>
@@ -1183,11 +1183,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Hualpén</t>
+          <t>El Tabo</t>
         </is>
       </c>
       <c r="B64">
-        <v>82489</v>
+        <v>9475</v>
       </c>
       <c r="C64">
         <v>2015</v>
@@ -1196,11 +1196,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Lebu</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
       <c r="B65">
-        <v>24955</v>
+        <v>6976</v>
       </c>
       <c r="C65">
         <v>2015</v>
@@ -1209,11 +1209,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Arauco</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="B66">
-        <v>44576</v>
+        <v>61003</v>
       </c>
       <c r="C66">
         <v>2015</v>
@@ -1222,11 +1222,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cañete</t>
+          <t>Catemu</t>
         </is>
       </c>
       <c r="B67">
-        <v>34175</v>
+        <v>10918</v>
       </c>
       <c r="C67">
         <v>2015</v>
@@ -1235,11 +1235,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Curanilahue</t>
+          <t>Llaillay</t>
         </is>
       </c>
       <c r="B68">
-        <v>29129</v>
+        <v>17278</v>
       </c>
       <c r="C68">
         <v>2015</v>
@@ -1248,11 +1248,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Los Ángeles</t>
+          <t>Panquehue</t>
         </is>
       </c>
       <c r="B69">
-        <v>210102</v>
+        <v>5868</v>
       </c>
       <c r="C69">
         <v>2015</v>
@@ -1261,11 +1261,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Laja</t>
+          <t>Putaendo</t>
         </is>
       </c>
       <c r="B70">
-        <v>19096</v>
+        <v>13529</v>
       </c>
       <c r="C70">
         <v>2015</v>
@@ -1274,11 +1274,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Mulchén</t>
+          <t>Santa María</t>
         </is>
       </c>
       <c r="B71">
-        <v>27028</v>
+        <v>11960</v>
       </c>
       <c r="C71">
         <v>2015</v>
@@ -1287,11 +1287,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Nacimiento</t>
+          <t>Quilpué</t>
         </is>
       </c>
       <c r="B72">
-        <v>25406</v>
+        <v>124211</v>
       </c>
       <c r="C72">
         <v>2015</v>
@@ -1300,11 +1300,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Chillán</t>
+          <t>Limache</t>
         </is>
       </c>
       <c r="B73">
-        <v>177642</v>
+        <v>34349</v>
       </c>
       <c r="C73">
         <v>2015</v>
@@ -1313,11 +1313,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Chillán Viejo</t>
+          <t>Olmué</t>
         </is>
       </c>
       <c r="B74">
-        <v>34226</v>
+        <v>12852</v>
       </c>
       <c r="C74">
         <v>2015</v>
@@ -1326,11 +1326,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Temuco</t>
+          <t>Villa Alemana</t>
         </is>
       </c>
       <c r="B75">
-        <v>325048</v>
+        <v>109727</v>
       </c>
       <c r="C75">
         <v>2015</v>
@@ -1339,11 +1339,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Carahue</t>
+          <t>Rancagua</t>
         </is>
       </c>
       <c r="B76">
-        <v>23918</v>
+        <v>190479</v>
       </c>
       <c r="C76">
         <v>2015</v>
@@ -1352,11 +1352,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Cunco</t>
+          <t>Codegua</t>
         </is>
       </c>
       <c r="B77">
-        <v>18035</v>
+        <v>9020</v>
       </c>
       <c r="C77">
         <v>2015</v>
@@ -1365,11 +1365,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Freire</t>
+          <t>Coinco</t>
         </is>
       </c>
       <c r="B78">
-        <v>27602</v>
+        <v>5865</v>
       </c>
       <c r="C78">
         <v>2015</v>
@@ -1378,11 +1378,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lautaro</t>
+          <t>Coltauco</t>
         </is>
       </c>
       <c r="B79">
-        <v>36173</v>
+        <v>14338</v>
       </c>
       <c r="C79">
         <v>2015</v>
@@ -1391,11 +1391,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Nueva Imperial</t>
+          <t>Doñihue</t>
         </is>
       </c>
       <c r="B80">
-        <v>30802</v>
+        <v>16082</v>
       </c>
       <c r="C80">
         <v>2015</v>
@@ -1404,11 +1404,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Padre Las Casas</t>
+          <t>Graneros</t>
         </is>
       </c>
       <c r="B81">
-        <v>80052</v>
+        <v>23331</v>
       </c>
       <c r="C81">
         <v>2015</v>
@@ -1417,11 +1417,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Pitrufquén</t>
+          <t>Las Cabras</t>
         </is>
       </c>
       <c r="B82">
-        <v>23912</v>
+        <v>19058</v>
       </c>
       <c r="C82">
         <v>2015</v>
@@ -1430,11 +1430,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pucón</t>
+          <t>Machalí</t>
         </is>
       </c>
       <c r="B83">
-        <v>35788</v>
+        <v>27382</v>
       </c>
       <c r="C83">
         <v>2015</v>
@@ -1443,11 +1443,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Villarrica</t>
+          <t>Malloa</t>
         </is>
       </c>
       <c r="B84">
-        <v>61430</v>
+        <v>10486</v>
       </c>
       <c r="C84">
         <v>2015</v>
@@ -1456,11 +1456,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Angol</t>
+          <t>Mostazal</t>
         </is>
       </c>
       <c r="B85">
-        <v>49470</v>
+        <v>20764</v>
       </c>
       <c r="C85">
         <v>2015</v>
@@ -1469,11 +1469,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Collipulli</t>
+          <t>Olivar</t>
         </is>
       </c>
       <c r="B86">
-        <v>18332</v>
+        <v>10402</v>
       </c>
       <c r="C86">
         <v>2015</v>
@@ -1482,11 +1482,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Curacautín</t>
+          <t>Peumo</t>
         </is>
       </c>
       <c r="B87">
-        <v>14292</v>
+        <v>12618</v>
       </c>
       <c r="C87">
         <v>2015</v>
@@ -1495,11 +1495,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Traiguén</t>
+          <t>Pichidegua</t>
         </is>
       </c>
       <c r="B88">
-        <v>16417</v>
+        <v>15588</v>
       </c>
       <c r="C88">
         <v>2015</v>
@@ -1508,11 +1508,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Victoria</t>
+          <t>Quinta de Tilcoco</t>
         </is>
       </c>
       <c r="B89">
-        <v>31563</v>
+        <v>9598</v>
       </c>
       <c r="C89">
         <v>2015</v>
@@ -1521,11 +1521,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Puerto Montt</t>
+          <t>Rengo</t>
         </is>
       </c>
       <c r="B90">
-        <v>261322</v>
+        <v>47700</v>
       </c>
       <c r="C90">
         <v>2015</v>
@@ -1534,11 +1534,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Calbuco</t>
+          <t>Requínoa</t>
         </is>
       </c>
       <c r="B91">
-        <v>36487</v>
+        <v>15484</v>
       </c>
       <c r="C91">
         <v>2015</v>
@@ -1547,11 +1547,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Frutillar</t>
+          <t>San Vicente</t>
         </is>
       </c>
       <c r="B92">
-        <v>18179</v>
+        <v>35202</v>
       </c>
       <c r="C92">
         <v>2015</v>
@@ -1560,11 +1560,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Los Muermos</t>
+          <t>Pichilemu</t>
         </is>
       </c>
       <c r="B93">
-        <v>15107</v>
+        <v>11933</v>
       </c>
       <c r="C93">
         <v>2015</v>
@@ -1573,11 +1573,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Llanquihue</t>
+          <t>La Estrella</t>
         </is>
       </c>
       <c r="B94">
-        <v>18865</v>
+        <v>3650</v>
       </c>
       <c r="C94">
         <v>2015</v>
@@ -1586,11 +1586,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Castro</t>
+          <t>Litueche</t>
         </is>
       </c>
       <c r="B95">
-        <v>56239</v>
+        <v>4080</v>
       </c>
       <c r="C95">
         <v>2015</v>
@@ -1599,11 +1599,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ancud</t>
+          <t>Marchihue</t>
         </is>
       </c>
       <c r="B96">
-        <v>41183</v>
+        <v>5790</v>
       </c>
       <c r="C96">
         <v>2015</v>
@@ -1612,11 +1612,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Quellón</t>
+          <t>Navidad</t>
         </is>
       </c>
       <c r="B97">
-        <v>36882</v>
+        <v>4570</v>
       </c>
       <c r="C97">
         <v>2015</v>
@@ -1625,11 +1625,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Osorno</t>
+          <t>Paredones</t>
         </is>
       </c>
       <c r="B98">
-        <v>164409</v>
+        <v>5345</v>
       </c>
       <c r="C98">
         <v>2015</v>
@@ -1638,11 +1638,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Río Negro</t>
+          <t>San Fernando</t>
         </is>
       </c>
       <c r="B99">
-        <v>12008</v>
+        <v>58225</v>
       </c>
       <c r="C99">
         <v>2015</v>
@@ -1651,11 +1651,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Coyhaique</t>
+          <t>Chépica</t>
         </is>
       </c>
       <c r="B100">
-        <v>58129</v>
+        <v>11058</v>
       </c>
       <c r="C100">
         <v>2015</v>
@@ -1664,11 +1664,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Aysén</t>
+          <t>Chimbarongo</t>
         </is>
       </c>
       <c r="B101">
-        <v>26700</v>
+        <v>28225</v>
       </c>
       <c r="C101">
         <v>2015</v>
@@ -1677,11 +1677,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cochrane</t>
+          <t>Lolol</t>
         </is>
       </c>
       <c r="B102">
-        <v>2522</v>
+        <v>4954</v>
       </c>
       <c r="C102">
         <v>2015</v>
@@ -1690,11 +1690,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Chile Chico</t>
+          <t>Nancagua</t>
         </is>
       </c>
       <c r="B103">
-        <v>5204</v>
+        <v>13222</v>
       </c>
       <c r="C103">
         <v>2015</v>
@@ -1703,11 +1703,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Punta Arenas</t>
+          <t>Palmilla</t>
         </is>
       </c>
       <c r="B104">
-        <v>121539</v>
+        <v>8896</v>
       </c>
       <c r="C104">
         <v>2015</v>
@@ -1716,11 +1716,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Porvenir</t>
+          <t>Peralillo</t>
         </is>
       </c>
       <c r="B105">
-        <v>4788</v>
+        <v>8358</v>
       </c>
       <c r="C105">
         <v>2015</v>
@@ -1729,11 +1729,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Natales</t>
+          <t>Placilla</t>
         </is>
       </c>
       <c r="B106">
-        <v>20103</v>
+        <v>6668</v>
       </c>
       <c r="C106">
         <v>2015</v>
@@ -1742,11 +1742,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Pumanque</t>
         </is>
       </c>
       <c r="B107">
-        <v>134888</v>
+        <v>2476</v>
       </c>
       <c r="C107">
         <v>2015</v>
@@ -1755,11 +1755,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Cerro Navia</t>
+          <t>Santa Cruz</t>
         </is>
       </c>
       <c r="B108">
-        <v>124115</v>
+        <v>29825</v>
       </c>
       <c r="C108">
         <v>2015</v>
@@ -1768,11 +1768,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Conchalí</t>
+          <t>Talca</t>
         </is>
       </c>
       <c r="B109">
-        <v>94575</v>
+        <v>195425</v>
       </c>
       <c r="C109">
         <v>2015</v>
@@ -1781,11 +1781,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>El Bosque</t>
+          <t>Constitución</t>
         </is>
       </c>
       <c r="B110">
-        <v>158325</v>
+        <v>43047</v>
       </c>
       <c r="C110">
         <v>2015</v>
@@ -1794,11 +1794,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Estación Central</t>
+          <t>Curepto</t>
         </is>
       </c>
       <c r="B111">
-        <v>96942</v>
+        <v>6519</v>
       </c>
       <c r="C111">
         <v>2015</v>
@@ -1807,11 +1807,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>La Florida</t>
+          <t>Empedrado</t>
         </is>
       </c>
       <c r="B112">
-        <v>392270</v>
+        <v>2988</v>
       </c>
       <c r="C112">
         <v>2015</v>
@@ -1820,11 +1820,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>La Granja</t>
+          <t>Maule</t>
         </is>
       </c>
       <c r="B113">
-        <v>115788</v>
+        <v>18458</v>
       </c>
       <c r="C113">
         <v>2015</v>
@@ -1833,11 +1833,11 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>La Pintana</t>
+          <t>Pelarco</t>
         </is>
       </c>
       <c r="B114">
-        <v>199844</v>
+        <v>5564</v>
       </c>
       <c r="C114">
         <v>2015</v>
@@ -1846,11 +1846,11 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Las Condes</t>
+          <t>Pencahue</t>
         </is>
       </c>
       <c r="B115">
-        <v>291759</v>
+        <v>7347</v>
       </c>
       <c r="C115">
         <v>2015</v>
@@ -1859,11 +1859,11 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Macul</t>
+          <t>Río Claro</t>
         </is>
       </c>
       <c r="B116">
-        <v>88302</v>
+        <v>10513</v>
       </c>
       <c r="C116">
         <v>2015</v>
@@ -1872,11 +1872,11 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Maipú</t>
+          <t>San Clemente</t>
         </is>
       </c>
       <c r="B117">
-        <v>1032787</v>
+        <v>30032</v>
       </c>
       <c r="C117">
         <v>2015</v>
@@ -1885,11 +1885,11 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ñuñoa</t>
+          <t>San Rafael</t>
         </is>
       </c>
       <c r="B118">
-        <v>132416</v>
+        <v>7108</v>
       </c>
       <c r="C118">
         <v>2015</v>
@@ -1898,11 +1898,11 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Pedro Aguirre Cerda</t>
+          <t>Cauquenes</t>
         </is>
       </c>
       <c r="B119">
-        <v>82546</v>
+        <v>32504</v>
       </c>
       <c r="C119">
         <v>2015</v>
@@ -1911,11 +1911,11 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Peñalolén</t>
+          <t>Chanco</t>
         </is>
       </c>
       <c r="B120">
-        <v>252562</v>
+        <v>7270</v>
       </c>
       <c r="C120">
         <v>2015</v>
@@ -1924,11 +1924,11 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Providencia</t>
+          <t>Pelluhue</t>
         </is>
       </c>
       <c r="B121">
-        <v>119518</v>
+        <v>6623</v>
       </c>
       <c r="C121">
         <v>2015</v>
@@ -1937,11 +1937,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Pudahuel</t>
+          <t>Curicó</t>
         </is>
       </c>
       <c r="B122">
-        <v>292902</v>
+        <v>111987</v>
       </c>
       <c r="C122">
         <v>2015</v>
@@ -1950,11 +1950,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Quilicura</t>
+          <t>Hualañé</t>
         </is>
       </c>
       <c r="B123">
-        <v>251802</v>
+        <v>8535</v>
       </c>
       <c r="C123">
         <v>2015</v>
@@ -1963,11 +1963,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Quinta Normal</t>
+          <t>Licantén</t>
         </is>
       </c>
       <c r="B124">
-        <v>77920</v>
+        <v>6034</v>
       </c>
       <c r="C124">
         <v>2015</v>
@@ -1976,11 +1976,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Recoleta</t>
+          <t>Molina</t>
         </is>
       </c>
       <c r="B125">
-        <v>110766</v>
+        <v>34136</v>
       </c>
       <c r="C125">
         <v>2015</v>
@@ -1989,11 +1989,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Renca</t>
+          <t>Rauco</t>
         </is>
       </c>
       <c r="B126">
-        <v>124992</v>
+        <v>7991</v>
       </c>
       <c r="C126">
         <v>2015</v>
@@ -2002,11 +2002,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Romeral</t>
         </is>
       </c>
       <c r="B127">
-        <v>63101</v>
+        <v>11485</v>
       </c>
       <c r="C127">
         <v>2015</v>
@@ -2015,11 +2015,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Puente Alto</t>
+          <t>Sagrada Familia</t>
         </is>
       </c>
       <c r="B128">
-        <v>826969</v>
+        <v>15564</v>
       </c>
       <c r="C128">
         <v>2015</v>
@@ -2028,11 +2028,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Colina</t>
+          <t>Teno</t>
         </is>
       </c>
       <c r="B129">
-        <v>118915</v>
+        <v>21503</v>
       </c>
       <c r="C129">
         <v>2015</v>
@@ -2041,11 +2041,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>San Bernardo</t>
+          <t>Vichuquén</t>
         </is>
       </c>
       <c r="B130">
-        <v>326315</v>
+        <v>3751</v>
       </c>
       <c r="C130">
         <v>2015</v>
@@ -2054,11 +2054,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Melipilla</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="B131">
-        <v>107806</v>
+        <v>71363</v>
       </c>
       <c r="C131">
         <v>2015</v>
@@ -2067,11 +2067,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Talagante</t>
+          <t>Colbún</t>
         </is>
       </c>
       <c r="B132">
-        <v>81953</v>
+        <v>13784</v>
       </c>
       <c r="C132">
         <v>2015</v>
@@ -2080,11 +2080,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Valdivia</t>
+          <t>Longaví</t>
         </is>
       </c>
       <c r="B133">
-        <v>162469</v>
+        <v>22948</v>
       </c>
       <c r="C133">
         <v>2015</v>
@@ -2093,11 +2093,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Los Lagos</t>
+          <t>Parral</t>
         </is>
       </c>
       <c r="B134">
-        <v>21076</v>
+        <v>28323</v>
       </c>
       <c r="C134">
         <v>2015</v>
@@ -2106,11 +2106,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Paillaco</t>
+          <t>Retiro</t>
         </is>
       </c>
       <c r="B135">
-        <v>19468</v>
+        <v>13634</v>
       </c>
       <c r="C135">
         <v>2015</v>
@@ -2119,11 +2119,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Panguipulli</t>
+          <t>San Javier</t>
         </is>
       </c>
       <c r="B136">
-        <v>33061</v>
+        <v>32050</v>
       </c>
       <c r="C136">
         <v>2015</v>
@@ -2132,11 +2132,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>La Unión</t>
+          <t>Villa Alegre</t>
         </is>
       </c>
       <c r="B137">
-        <v>36032</v>
+        <v>12059</v>
       </c>
       <c r="C137">
         <v>2015</v>
@@ -2145,11 +2145,11 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Río Bueno</t>
+          <t>Yerbas Buenas</t>
         </is>
       </c>
       <c r="B138">
-        <v>29860</v>
+        <v>13602</v>
       </c>
       <c r="C138">
         <v>2015</v>
@@ -2158,11 +2158,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Concepción</t>
         </is>
       </c>
       <c r="B139">
-        <v>164536</v>
+        <v>178106</v>
       </c>
       <c r="C139">
         <v>2015</v>
@@ -2171,13 +2171,2418 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
+          <t>Coronel</t>
+        </is>
+      </c>
+      <c r="B140">
+        <v>85758</v>
+      </c>
+      <c r="C140">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Chiguayante</t>
+        </is>
+      </c>
+      <c r="B141">
+        <v>106239</v>
+      </c>
+      <c r="C141">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="B142">
+        <v>7429</v>
+      </c>
+      <c r="C142">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Hualqui</t>
+        </is>
+      </c>
+      <c r="B143">
+        <v>17018</v>
+      </c>
+      <c r="C143">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Lota</t>
+        </is>
+      </c>
+      <c r="B144">
+        <v>36321</v>
+      </c>
+      <c r="C144">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Penco</t>
+        </is>
+      </c>
+      <c r="B145">
+        <v>44775</v>
+      </c>
+      <c r="C145">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>San Pedro de la Paz</t>
+        </is>
+      </c>
+      <c r="B146">
+        <v>73367</v>
+      </c>
+      <c r="C146">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Santa Juana</t>
+        </is>
+      </c>
+      <c r="B147">
+        <v>10414</v>
+      </c>
+      <c r="C147">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Talcahuano</t>
+        </is>
+      </c>
+      <c r="B148">
+        <v>133680</v>
+      </c>
+      <c r="C148">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Tomé</t>
+        </is>
+      </c>
+      <c r="B149">
+        <v>46375</v>
+      </c>
+      <c r="C149">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Hualpén</t>
+        </is>
+      </c>
+      <c r="B150">
+        <v>68133</v>
+      </c>
+      <c r="C150">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Lebu</t>
+        </is>
+      </c>
+      <c r="B151">
+        <v>18358</v>
+      </c>
+      <c r="C151">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Arauco</t>
+        </is>
+      </c>
+      <c r="B152">
+        <v>33965</v>
+      </c>
+      <c r="C152">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Cañete</t>
+        </is>
+      </c>
+      <c r="B153">
+        <v>25255</v>
+      </c>
+      <c r="C153">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Contulmo</t>
+        </is>
+      </c>
+      <c r="B154">
+        <v>3832</v>
+      </c>
+      <c r="C154">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Curanilahue</t>
+        </is>
+      </c>
+      <c r="B155">
+        <v>24296</v>
+      </c>
+      <c r="C155">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Los Álamos</t>
+        </is>
+      </c>
+      <c r="B156">
+        <v>16994</v>
+      </c>
+      <c r="C156">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Tirúa</t>
+        </is>
+      </c>
+      <c r="B157">
+        <v>7892</v>
+      </c>
+      <c r="C157">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="B158">
+        <v>152694</v>
+      </c>
+      <c r="C158">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Antuco</t>
+        </is>
+      </c>
+      <c r="B159">
+        <v>2818</v>
+      </c>
+      <c r="C159">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+      <c r="B160">
+        <v>23550</v>
+      </c>
+      <c r="C160">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Laja</t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>15402</v>
+      </c>
+      <c r="C161">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Mulchén</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>21785</v>
+      </c>
+      <c r="C162">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Nacimiento</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>18431</v>
+      </c>
+      <c r="C163">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Negrete</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>7057</v>
+      </c>
+      <c r="C164">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Quilaco</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>2716</v>
+      </c>
+      <c r="C165">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Quilleco</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>8000</v>
+      </c>
+      <c r="C166">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>San Rosendo</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>2576</v>
+      </c>
+      <c r="C167">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Santa Bárbara</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>10813</v>
+      </c>
+      <c r="C168">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Tucapel</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>10948</v>
+      </c>
+      <c r="C169">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Yumbel</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>16608</v>
+      </c>
+      <c r="C170">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Alto Biobío</t>
+        </is>
+      </c>
+      <c r="B171">
+        <v>8493</v>
+      </c>
+      <c r="C171">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Chillán</t>
+        </is>
+      </c>
+      <c r="B172">
+        <v>136797</v>
+      </c>
+      <c r="C172">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Bulnes</t>
+        </is>
+      </c>
+      <c r="B173">
+        <v>16762</v>
+      </c>
+      <c r="C173">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Cobquecura</t>
+        </is>
+      </c>
+      <c r="B174">
+        <v>3905</v>
+      </c>
+      <c r="C174">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Coelemu</t>
+        </is>
+      </c>
+      <c r="B175">
+        <v>12087</v>
+      </c>
+      <c r="C175">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Coihueco</t>
+        </is>
+      </c>
+      <c r="B176">
+        <v>18202</v>
+      </c>
+      <c r="C176">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Chillán Viejo</t>
+        </is>
+      </c>
+      <c r="B177">
+        <v>23593</v>
+      </c>
+      <c r="C177">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>El Carmen</t>
+        </is>
+      </c>
+      <c r="B178">
+        <v>8543</v>
+      </c>
+      <c r="C178">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Ninhue</t>
+        </is>
+      </c>
+      <c r="B179">
+        <v>4024</v>
+      </c>
+      <c r="C179">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Ñiquén</t>
+        </is>
+      </c>
+      <c r="B180">
+        <v>7430</v>
+      </c>
+      <c r="C180">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Pemuco</t>
+        </is>
+      </c>
+      <c r="B181">
+        <v>6895</v>
+      </c>
+      <c r="C181">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Pinto</t>
+        </is>
+      </c>
+      <c r="B182">
+        <v>8150</v>
+      </c>
+      <c r="C182">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Portezuelo</t>
+        </is>
+      </c>
+      <c r="B183">
+        <v>3640</v>
+      </c>
+      <c r="C183">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Quillón</t>
+        </is>
+      </c>
+      <c r="B184">
+        <v>13397</v>
+      </c>
+      <c r="C184">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Quirihue</t>
+        </is>
+      </c>
+      <c r="B185">
+        <v>9425</v>
+      </c>
+      <c r="C185">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Ránquil</t>
+        </is>
+      </c>
+      <c r="B186">
+        <v>3917</v>
+      </c>
+      <c r="C186">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>San Carlos</t>
+        </is>
+      </c>
+      <c r="B187">
+        <v>39393</v>
+      </c>
+      <c r="C187">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>San Fabián</t>
+        </is>
+      </c>
+      <c r="B188">
+        <v>2657</v>
+      </c>
+      <c r="C188">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>San Ignacio</t>
+        </is>
+      </c>
+      <c r="B189">
+        <v>12020</v>
+      </c>
+      <c r="C189">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>San Nicolás</t>
+        </is>
+      </c>
+      <c r="B190">
+        <v>8118</v>
+      </c>
+      <c r="C190">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Treguaco</t>
+        </is>
+      </c>
+      <c r="B191">
+        <v>3906</v>
+      </c>
+      <c r="C191">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Yungay</t>
+        </is>
+      </c>
+      <c r="B192">
+        <v>14320</v>
+      </c>
+      <c r="C192">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Temuco</t>
+        </is>
+      </c>
+      <c r="B193">
+        <v>245921</v>
+      </c>
+      <c r="C193">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Carahue</t>
+        </is>
+      </c>
+      <c r="B194">
+        <v>18744</v>
+      </c>
+      <c r="C194">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Cunco</t>
+        </is>
+      </c>
+      <c r="B195">
+        <v>14675</v>
+      </c>
+      <c r="C195">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Curarrehue</t>
+        </is>
+      </c>
+      <c r="B196">
+        <v>5299</v>
+      </c>
+      <c r="C196">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Freire</t>
+        </is>
+      </c>
+      <c r="B197">
+        <v>21196</v>
+      </c>
+      <c r="C197">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Galvarino</t>
+        </is>
+      </c>
+      <c r="B198">
+        <v>8299</v>
+      </c>
+      <c r="C198">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Gorbea</t>
+        </is>
+      </c>
+      <c r="B199">
+        <v>11731</v>
+      </c>
+      <c r="C199">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="B200">
+        <v>27286</v>
+      </c>
+      <c r="C200">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Loncoche</t>
+        </is>
+      </c>
+      <c r="B201">
+        <v>16332</v>
+      </c>
+      <c r="C201">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Melipeuco</t>
+        </is>
+      </c>
+      <c r="B202">
+        <v>4174</v>
+      </c>
+      <c r="C202">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Nueva Imperial</t>
+        </is>
+      </c>
+      <c r="B203">
+        <v>21979</v>
+      </c>
+      <c r="C203">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Padre Las Casas</t>
+        </is>
+      </c>
+      <c r="B204">
+        <v>58218</v>
+      </c>
+      <c r="C204">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Perquenco</t>
+        </is>
+      </c>
+      <c r="B205">
+        <v>5112</v>
+      </c>
+      <c r="C205">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Pitrufquén</t>
+        </is>
+      </c>
+      <c r="B206">
+        <v>18934</v>
+      </c>
+      <c r="C206">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Pucón</t>
+        </is>
+      </c>
+      <c r="B207">
+        <v>26521</v>
+      </c>
+      <c r="C207">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Saavedra</t>
+        </is>
+      </c>
+      <c r="B208">
+        <v>9187</v>
+      </c>
+      <c r="C208">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Teodoro Schmidt</t>
+        </is>
+      </c>
+      <c r="B209">
+        <v>12061</v>
+      </c>
+      <c r="C209">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Toltén</t>
+        </is>
+      </c>
+      <c r="B210">
+        <v>7165</v>
+      </c>
+      <c r="C210">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Vilcún</t>
+        </is>
+      </c>
+      <c r="B211">
+        <v>17914</v>
+      </c>
+      <c r="C211">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Villarrica</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>47496</v>
+      </c>
+      <c r="C212">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Cholchol</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>8143</v>
+      </c>
+      <c r="C213">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Angol</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>37261</v>
+      </c>
+      <c r="C214">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Collipulli</t>
+        </is>
+      </c>
+      <c r="B215">
+        <v>13003</v>
+      </c>
+      <c r="C215">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Curacautín</t>
+        </is>
+      </c>
+      <c r="B216">
+        <v>11615</v>
+      </c>
+      <c r="C216">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Ercilla</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>6267</v>
+      </c>
+      <c r="C217">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Lonquimay</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>7861</v>
+      </c>
+      <c r="C218">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Los Sauces</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>4674</v>
+      </c>
+      <c r="C219">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Lumaco</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>6953</v>
+      </c>
+      <c r="C220">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Purén</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>8384</v>
+      </c>
+      <c r="C221">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Renaico</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>6549</v>
+      </c>
+      <c r="C222">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Traiguén</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>13045</v>
+      </c>
+      <c r="C223">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>24940</v>
+      </c>
+      <c r="C224">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Puerto Montt</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>196887</v>
+      </c>
+      <c r="C225">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Calbuco</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>27618</v>
+      </c>
+      <c r="C226">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Fresia</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>8782</v>
+      </c>
+      <c r="C227">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Frutillar</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>15352</v>
+      </c>
+      <c r="C228">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Los Muermos</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>12414</v>
+      </c>
+      <c r="C229">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Llanquihue</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>14835</v>
+      </c>
+      <c r="C230">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Maullín</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>10912</v>
+      </c>
+      <c r="C231">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Puerto Varas</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>32021</v>
+      </c>
+      <c r="C232">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>38634</v>
+      </c>
+      <c r="C233">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Ancud</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>33585</v>
+      </c>
+      <c r="C234">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Chonchi</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>11047</v>
+      </c>
+      <c r="C235">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Curaco de Vélez</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>3078</v>
+      </c>
+      <c r="C236">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Dalcahue</t>
+        </is>
+      </c>
+      <c r="B237">
+        <v>12928</v>
+      </c>
+      <c r="C237">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Puqueldón</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>3227</v>
+      </c>
+      <c r="C238">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Queilén</t>
+        </is>
+      </c>
+      <c r="B239">
+        <v>4179</v>
+      </c>
+      <c r="C239">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Quellón</t>
+        </is>
+      </c>
+      <c r="B240">
+        <v>27617</v>
+      </c>
+      <c r="C240">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Quemchi</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>7376</v>
+      </c>
+      <c r="C241">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Quinchao</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>6294</v>
+      </c>
+      <c r="C242">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>124000</v>
+      </c>
+      <c r="C243">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Puerto Octay</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>7019</v>
+      </c>
+      <c r="C244">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Purranque</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>16270</v>
+      </c>
+      <c r="C245">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Puyehue</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>7919</v>
+      </c>
+      <c r="C246">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Río Negro</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>10192</v>
+      </c>
+      <c r="C247">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>San Juan de la Costa</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>5242</v>
+      </c>
+      <c r="C248">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>San Pablo</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>5817</v>
+      </c>
+      <c r="C249">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Coyhaique</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>42439</v>
+      </c>
+      <c r="C250">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>20249</v>
+      </c>
+      <c r="C251">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Cisnes</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>3750</v>
+      </c>
+      <c r="C252">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Cochrane</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>1871</v>
+      </c>
+      <c r="C253">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Chile Chico</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>3941</v>
+      </c>
+      <c r="C254">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Río Ibáñez</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>1590</v>
+      </c>
+      <c r="C255">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Punta Arenas</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>94932</v>
+      </c>
+      <c r="C256">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Porvenir</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>3825</v>
+      </c>
+      <c r="C257">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Natales</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>15832</v>
+      </c>
+      <c r="C258">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>120387</v>
+      </c>
+      <c r="C259">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Cerrillos</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>50923</v>
+      </c>
+      <c r="C260">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Cerro Navia</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>97638</v>
+      </c>
+      <c r="C261">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Conchalí</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>78484</v>
+      </c>
+      <c r="C262">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>El Bosque</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>124950</v>
+      </c>
+      <c r="C263">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Estación Central</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>81314</v>
+      </c>
+      <c r="C264">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Huechuraba</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>66110</v>
+      </c>
+      <c r="C265">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Independencia</t>
+        </is>
+      </c>
+      <c r="B266">
+        <v>38250</v>
+      </c>
+      <c r="C266">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>La Cisterna</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>55714</v>
+      </c>
+      <c r="C267">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>La Florida</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>310153</v>
+      </c>
+      <c r="C268">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>La Granja</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>87716</v>
+      </c>
+      <c r="C269">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>La Pintana</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>145714</v>
+      </c>
+      <c r="C270">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>La Reina</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>74823</v>
+      </c>
+      <c r="C271">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>237019</v>
+      </c>
+      <c r="C272">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Lo Barnechea</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>95335</v>
+      </c>
+      <c r="C273">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Lo Espejo</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>77408</v>
+      </c>
+      <c r="C274">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Lo Prado</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>68830</v>
+      </c>
+      <c r="C275">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Macul</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>75725</v>
+      </c>
+      <c r="C276">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Maipú</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>728256</v>
+      </c>
+      <c r="C277">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Ñuñoa</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>113764</v>
+      </c>
+      <c r="C278">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Pedro Aguirre Cerda</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>66681</v>
+      </c>
+      <c r="C279">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Peñalolén</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>190549</v>
+      </c>
+      <c r="C280">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Providencia</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>104210</v>
+      </c>
+      <c r="C281">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Pudahuel</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>214561</v>
+      </c>
+      <c r="C282">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Quilicura</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>166942</v>
+      </c>
+      <c r="C283">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Quinta Normal</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>66995</v>
+      </c>
+      <c r="C284">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Recoleta</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>88485</v>
+      </c>
+      <c r="C285">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Renca</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>96616</v>
+      </c>
+      <c r="C286">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>San Joaquín</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>55793</v>
+      </c>
+      <c r="C287">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>San Miguel</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>54706</v>
+      </c>
+      <c r="C288">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>San Ramón</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>64108</v>
+      </c>
+      <c r="C289">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Vitacura</t>
+        </is>
+      </c>
+      <c r="B290">
+        <v>63339</v>
+      </c>
+      <c r="C290">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Puente Alto</t>
+        </is>
+      </c>
+      <c r="B291">
+        <v>588451</v>
+      </c>
+      <c r="C291">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Pirque</t>
+        </is>
+      </c>
+      <c r="B292">
+        <v>19993</v>
+      </c>
+      <c r="C292">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>San José de Maipo</t>
+        </is>
+      </c>
+      <c r="B293">
+        <v>10640</v>
+      </c>
+      <c r="C293">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Colina</t>
+        </is>
+      </c>
+      <c r="B294">
+        <v>78374</v>
+      </c>
+      <c r="C294">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Lampa</t>
+        </is>
+      </c>
+      <c r="B295">
+        <v>50020</v>
+      </c>
+      <c r="C295">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Tiltil</t>
+        </is>
+      </c>
+      <c r="B296">
+        <v>12732</v>
+      </c>
+      <c r="C296">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>San Bernardo</t>
+        </is>
+      </c>
+      <c r="B297">
+        <v>238552</v>
+      </c>
+      <c r="C297">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Buin</t>
+        </is>
+      </c>
+      <c r="B298">
+        <v>59454</v>
+      </c>
+      <c r="C298">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Calera de Tango</t>
+        </is>
+      </c>
+      <c r="B299">
+        <v>22143</v>
+      </c>
+      <c r="C299">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Paine</t>
+        </is>
+      </c>
+      <c r="B300">
+        <v>51825</v>
+      </c>
+      <c r="C300">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>84219</v>
+      </c>
+      <c r="C301">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Alhué</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>3635</v>
+      </c>
+      <c r="C302">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Curacaví</t>
+        </is>
+      </c>
+      <c r="B303">
+        <v>23674</v>
+      </c>
+      <c r="C303">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>María Pinto</t>
+        </is>
+      </c>
+      <c r="B304">
+        <v>9242</v>
+      </c>
+      <c r="C304">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>San Pedro</t>
+        </is>
+      </c>
+      <c r="B305">
+        <v>6244</v>
+      </c>
+      <c r="C305">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Talagante</t>
+        </is>
+      </c>
+      <c r="B306">
+        <v>62462</v>
+      </c>
+      <c r="C306">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>El Monte</t>
+        </is>
+      </c>
+      <c r="B307">
+        <v>25320</v>
+      </c>
+      <c r="C307">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Isla de Maipo</t>
+        </is>
+      </c>
+      <c r="B308">
+        <v>25091</v>
+      </c>
+      <c r="C308">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Padre Hurtado</t>
+        </is>
+      </c>
+      <c r="B309">
+        <v>37239</v>
+      </c>
+      <c r="C309">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Peñaflor</t>
+        </is>
+      </c>
+      <c r="B310">
+        <v>66412</v>
+      </c>
+      <c r="C310">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="B311">
+        <v>126190</v>
+      </c>
+      <c r="C311">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Corral</t>
+        </is>
+      </c>
+      <c r="B312">
+        <v>3706</v>
+      </c>
+      <c r="C312">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Lanco</t>
+        </is>
+      </c>
+      <c r="B313">
+        <v>12164</v>
+      </c>
+      <c r="C313">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="B314">
+        <v>16000</v>
+      </c>
+      <c r="C314">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Máfil</t>
+        </is>
+      </c>
+      <c r="B315">
+        <v>4837</v>
+      </c>
+      <c r="C315">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Mariquina</t>
+        </is>
+      </c>
+      <c r="B316">
+        <v>12976</v>
+      </c>
+      <c r="C316">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Paillaco</t>
+        </is>
+      </c>
+      <c r="B317">
+        <v>15024</v>
+      </c>
+      <c r="C317">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Panguipulli</t>
+        </is>
+      </c>
+      <c r="B318">
+        <v>25477</v>
+      </c>
+      <c r="C318">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>La Unión</t>
+        </is>
+      </c>
+      <c r="B319">
+        <v>29861</v>
+      </c>
+      <c r="C319">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Futrono</t>
+        </is>
+      </c>
+      <c r="B320">
+        <v>12087</v>
+      </c>
+      <c r="C320">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Lago Ranco</t>
+        </is>
+      </c>
+      <c r="B321">
+        <v>6674</v>
+      </c>
+      <c r="C321">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Río Bueno</t>
+        </is>
+      </c>
+      <c r="B322">
+        <v>24274</v>
+      </c>
+      <c r="C322">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+      <c r="B323">
+        <v>124726</v>
+      </c>
+      <c r="C323">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Camarones</t>
+        </is>
+      </c>
+      <c r="B324">
+        <v>1291</v>
+      </c>
+      <c r="C324">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
           <t>Putre</t>
         </is>
       </c>
-      <c r="B140">
-        <v>771</v>
-      </c>
-      <c r="C140">
+      <c r="B325">
+        <v>652</v>
+      </c>
+      <c r="C325">
         <v>2015</v>
       </c>
     </row>
